--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="376">
   <si>
     <t>python</t>
   </si>
@@ -784,9 +789,6 @@
     <t>嵌套</t>
   </si>
   <si>
-    <t>把字典存储在列表中，将列表作为值存储在字典中</t>
-  </si>
-  <si>
     <t>str1 = {'color':'red','points':'1'}</t>
   </si>
   <si>
@@ -1379,19 +1381,85 @@
   </si>
   <si>
     <t>第六章</t>
+  </si>
+  <si>
+    <t>把30个字典放到一个列表里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliens = []</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for alien_number in range(30):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_alien = {'color':'green','points':'1','speed':'slow'}</t>
+  </si>
+  <si>
+    <t>aliens.append(new_alien)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改列表中字典的值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a in aliens[0:5]:</t>
+  </si>
+  <si>
+    <t>a['color'] = 'rua'</t>
+  </si>
+  <si>
+    <t>a['points'] = 'rua'</t>
+  </si>
+  <si>
+    <t>a['speed'] = 'rua'</t>
+  </si>
+  <si>
+    <t>将列表作为值存储在字典中</t>
+  </si>
+  <si>
+    <t>把字典存储在列表中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir = {</t>
+  </si>
+  <si>
+    <t>'rua':'云顶之弈',</t>
+  </si>
+  <si>
+    <t>'meng':['九猩红','6海克斯','执事德莱文','毒斗罗'],</t>
+  </si>
+  <si>
+    <t>'bumeng':['拼多多老鼠','爆杀流卡特','9破败','5变异战士','丧失大眼儿']</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>输出字典里的值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a in dir['meng']:</t>
+  </si>
+  <si>
+    <t>print(a)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在字典中嵌套字典</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,345 +1503,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1781,255 +1548,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2069,62 +1594,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2411,25 +1898,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26666666666667" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="4.90833333333333" style="3"/>
+    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="4.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="9:31">
+    <row r="1" spans="1:31" ht="23" x14ac:dyDescent="0.25">
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -2452,7 +1939,7 @@
       </c>
       <c r="AE1" s="11"/>
     </row>
-    <row r="2" spans="23:27">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2505,7 +1992,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>13</v>
@@ -2539,7 +2026,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2575,7 +2062,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -2606,7 +2093,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2129,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2162,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2198,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2231,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2780,7 +2267,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2813,7 +2300,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2333,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2879,7 +2366,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2912,7 +2399,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -2945,7 +2432,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +2465,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3014,7 +2501,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +2534,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +2570,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3115,7 +2602,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
@@ -3147,7 +2634,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3180,7 +2667,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -3213,7 +2700,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
@@ -3246,7 +2733,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -3282,7 +2769,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +2802,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
@@ -3348,7 +2835,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -3381,7 +2868,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -3414,7 +2901,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +2934,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
@@ -3480,7 +2967,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
@@ -3513,7 +3000,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -3546,107 +3033,107 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -3654,27 +3141,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
@@ -3682,12 +3169,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -3695,22 +3182,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>81</v>
       </c>
@@ -3718,22 +3205,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>85</v>
       </c>
@@ -3741,42 +3228,42 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>94</v>
       </c>
@@ -3784,22 +3271,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
@@ -3807,12 +3294,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>102</v>
       </c>
@@ -3820,67 +3307,67 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C88" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>112</v>
       </c>
@@ -3888,17 +3375,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>116</v>
       </c>
@@ -3906,17 +3393,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>120</v>
       </c>
@@ -3924,22 +3411,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>125</v>
       </c>
@@ -3947,12 +3434,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>128</v>
       </c>
@@ -3960,17 +3447,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -3978,22 +3465,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
@@ -4001,22 +3488,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>142</v>
       </c>
@@ -4024,12 +3511,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -4037,7 +3524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="2:5">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
         <v>147</v>
       </c>
@@ -4045,12 +3532,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="6:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F124" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
         <v>150</v>
       </c>
@@ -4058,12 +3545,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F126" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>152</v>
       </c>
@@ -4071,17 +3558,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>155</v>
       </c>
@@ -4089,1026 +3576,1125 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="3" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="3" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="3" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="3" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="3" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="3" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="3" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="3" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="4" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="4" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="2" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="4" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="2" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="4" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="2" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="4" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="2" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="4" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="2" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="4" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="2" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="4" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="4" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="2" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="4" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="4" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="4" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="2" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="4" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="2" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="4" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="4" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="2" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="4" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="2" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="4" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="2" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="4" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="2" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="4" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="2" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="4" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="2" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="4" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="2" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="4" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="4" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="2" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="4" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="2" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="4" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="2" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="4" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="2" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="4" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="2" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="4" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="4" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="2" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="4" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="4" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="4" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="2" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="4" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="2" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="4" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="2" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="4" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="2" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="4" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="2" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="4" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="4" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="2" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="4" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="2" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="4" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="2" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="4" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="2" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393" s="4" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="4" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396" s="2" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="4" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="2" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="4" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="2" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="4" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="2" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="4" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="2" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="4" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="2" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="4" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="2" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409" s="4" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="2" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="4" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="2" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="4" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="2" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" s="4" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="2" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417" s="4" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418" s="2" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="4" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="2" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="4" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="2" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423" s="4" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="2" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="4" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426" s="2" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="4" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428" s="2" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429" s="4" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
-      <c r="A430" s="2" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="4" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="2" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="4" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="4" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="2" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="4" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438" s="2" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="4" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="2" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="4" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="2" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="4" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="2" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="4" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="2" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="4" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="2" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="4" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="2" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="4" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="2" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="4" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="2" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="4" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="2" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="4" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="2" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="4" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="2" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="4" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="2" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="4" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="2" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="4" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="2" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="4" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="2" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="4" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="2" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="4" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="2" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473" s="4" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
-      <c r="A474" s="2" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
-      <c r="A475" s="4" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="2" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="4" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
-      <c r="A478" s="2" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
-      <c r="A479" s="4" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
-      <c r="A480" s="2" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="4" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="2" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="4" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="2" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="4" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="2" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="4" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="2" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="4" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="2" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="4" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="2" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="4" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="2" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
-      <c r="A495" s="4" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="2" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="4" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
-      <c r="A498" s="2" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499" s="4" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="400">
   <si>
     <t>python</t>
   </si>
@@ -1452,6 +1452,102 @@
   </si>
   <si>
     <t>在字典中嵌套字典</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rua = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    's1':{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '喷':'双龙斗法',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '杀':'虚空九刺',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '砍':'帝国德莱文',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '拉':'拉面熊'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    's5':{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '踢':'三星李青',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '射':'三星沙弥',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '吸':'三星乌鸦',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '摔':'三星腕豪'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>input()方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户输入的信息，并以字符串的形式存到变量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把字符串类型的数变成数值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int()方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>while循环</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是出现多次就只能删除一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>so easy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函数名():</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1615,6 +1711,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>611352</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2844800"/>
+          <a:ext cx="12555702" cy="8183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1904,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE500"/>
+  <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A180" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3103,1571 +3242,1690 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="8" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="8" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="8" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="8" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="3" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B101" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B104" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="8" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="3" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="3" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B128" s="9" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B131" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="14" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="14" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C133" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C134" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C135" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C137" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="3" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="3" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="14" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="14" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C142" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="3" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="13" t="s">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="14" t="s">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="3" t="s">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="3" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D148" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D149" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="14" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C153" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C154" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C155" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="13" t="s">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="13" t="s">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="14" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="B175" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="B179" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="B181" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="4" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="4" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="4" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="4" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="4" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="4" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="4" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="4" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="4" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="4" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="4" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="4" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="4" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="4" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="4" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="4" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="4" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="4" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="4" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="4" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="4" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="4" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="4" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="4" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="4" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="4" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="4" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="4" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="4" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="4" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="4" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="4" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="4" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="4" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="4" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="4" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="4" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="4" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="4" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="4" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="4" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4696,5 +4954,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -1526,28 +1526,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 函数名():</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>函数体</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>调用</t>
+    <t>def 函数名(参数):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用：函数名(参数)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2045,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A180" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A177" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3981,12 +3968,12 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C183" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
-    <sheet name="书签" sheetId="2" r:id="rId2"/>
+    <sheet name="类" sheetId="3" r:id="rId2"/>
+    <sheet name="书签" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="424">
   <si>
     <t>python</t>
   </si>
@@ -1535,6 +1536,339 @@
   </si>
   <si>
     <t>调用：函数名(参数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数可以是变量，列表和字典，返回值也可以是任意数据结构</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递任意数量的参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>import 文件名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>文件名.函数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入其他.py文件里的单独函数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>函数名</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给函数取别名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from 文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>函数名 as 别名</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给文件取别名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>import 文件名 as 别名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入其他.py文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入其他.py文件的所有函数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from 文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>函数名(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*变量)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用变量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>init方法的内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建对象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>def __init__(self,可选参数1,可选参数2):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对象1名 = 类名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造函数可选参数1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造函数可选参数2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对象2名 = 类名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造函数可选参数1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造函数可选参数2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1637,7 +1971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,6 +2015,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2032,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A177" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView showGridLines="0" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3982,61 +4322,129 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="B185" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="B186" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="B189" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="B192" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="B195" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="B197" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>178</v>
       </c>
@@ -4924,6 +5332,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
     <sheet name="类" sheetId="3" r:id="rId2"/>
-    <sheet name="书签" sheetId="2" r:id="rId3"/>
+    <sheet name="文件" sheetId="4" r:id="rId3"/>
+    <sheet name="书签" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="439">
   <si>
     <t>python</t>
   </si>
@@ -1874,29 +1880,84 @@
     <t>对象.方法()</t>
   </si>
   <si>
-    <t>继承(调用父类)</t>
-  </si>
-  <si>
     <t>class 子类名(父类名)：</t>
   </si>
   <si>
+    <r>
+      <t>继承(调用父类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的构造函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>super().__init__(可选参数1,可选参数2)</t>
-  </si>
-  <si>
-    <t>第六章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种方法先调用子类的构造函数，super().__init__相当于手动调用父类的构造函数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类可以新写自己的属性和方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类可以重写父类的方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个小类变成一个大类的属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入类（把类存储在模块中）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4没学，感觉没什么用，用的时候再学就来得及</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>python标准库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>random模块中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>randint()函数，生成两个参数中的随机数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice()函数，生成传入列表或元组的随机一个元素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,345 +2001,51 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2286,255 +2053,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2577,81 +2102,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120856</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2661,23 +2151,100 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2743200"/>
-          <a:ext cx="13011150" cy="7315200"/>
+          <a:off x="368300" y="3556000"/>
+          <a:ext cx="2698956" cy="774700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="3556000"/>
+          <a:ext cx="2350960" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276710</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>153818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12889124" cy="8592749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2966,25 +2533,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A187" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.26666666666667" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="4.90833333333333" style="6"/>
+    <col min="1" max="1" width="5.26953125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="4.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="9:31">
+    <row r="1" spans="1:31" ht="23">
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -3007,7 +2574,7 @@
       </c>
       <c r="AE1" s="11"/>
     </row>
-    <row r="2" spans="23:27">
+    <row r="2" spans="1:31">
       <c r="W2" s="6" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +2591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +2627,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>13</v>
@@ -3094,7 +2661,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3130,7 +2697,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="1:31">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -3161,7 +2728,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3197,7 +2764,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="1:31">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3230,7 +2797,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +2833,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="1:31">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +2866,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3335,7 +2902,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:31">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +2935,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="1:31">
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3401,7 +2968,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="1:31">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3434,7 +3001,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="1:31">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3467,7 +3034,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="1:31">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3067,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="1:30">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3569,7 +3136,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="1:30">
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3205,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="1:30">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
@@ -3670,7 +3237,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="1:30">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -3702,7 +3269,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="1:30">
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3302,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="1:30">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -3768,7 +3335,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="1:30">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
@@ -3837,7 +3404,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="1:30">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3870,7 +3437,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="1:30">
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
@@ -3903,7 +3470,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="1:30">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -3936,7 +3503,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="1:30">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -3969,7 +3536,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="1:30">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -4002,7 +3569,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="1:30">
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
@@ -4101,107 +3668,107 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:30">
       <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:30">
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:30">
       <c r="B37" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:30">
       <c r="B38" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:30">
       <c r="B39" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:30">
       <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:30">
       <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:30">
       <c r="B42" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:30">
       <c r="B43" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:30">
       <c r="B44" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:30">
       <c r="B45" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:30">
       <c r="B46" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:30">
       <c r="B47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:30">
       <c r="B48" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
       <c r="B49" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2">
       <c r="B50" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:2">
       <c r="B51" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2">
       <c r="B52" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2">
       <c r="B53" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2">
       <c r="B54" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2">
       <c r="B55" s="9" t="s">
         <v>67</v>
       </c>
@@ -4214,22 +3781,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2">
       <c r="B57" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2">
       <c r="B58" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2">
       <c r="B59" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2">
       <c r="B60" s="6" t="s">
         <v>73</v>
       </c>
@@ -4242,7 +3809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2">
       <c r="B62" s="6" t="s">
         <v>76</v>
       </c>
@@ -4255,22 +3822,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:2">
       <c r="B64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:3">
       <c r="C65" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:3">
       <c r="B66" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
         <v>82</v>
       </c>
@@ -4278,22 +3845,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:3">
       <c r="B68" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3">
       <c r="B69" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="1:3">
       <c r="C70" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>86</v>
       </c>
@@ -4301,42 +3868,42 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3">
       <c r="B72" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:3">
       <c r="B73" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3">
       <c r="B74" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3">
       <c r="B75" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3">
       <c r="B76" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3">
       <c r="B77" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:3">
       <c r="B78" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
         <v>95</v>
       </c>
@@ -4344,22 +3911,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3">
       <c r="B80" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3">
       <c r="B81" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3">
       <c r="B82" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>100</v>
       </c>
@@ -4367,12 +3934,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3">
       <c r="B84" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
         <v>103</v>
       </c>
@@ -4380,67 +3947,67 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:3">
       <c r="B86" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3">
       <c r="C87" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3">
       <c r="B88" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3">
       <c r="C89" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3">
       <c r="B90" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="1:3">
       <c r="C91" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3">
       <c r="B92" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:3">
       <c r="B93" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="1:3">
       <c r="C94" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3">
       <c r="B95" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:3">
       <c r="B96" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3">
       <c r="C97" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>113</v>
       </c>
@@ -4448,17 +4015,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:3">
       <c r="B99" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3">
       <c r="B100" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>117</v>
       </c>
@@ -4466,17 +4033,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:3">
       <c r="B102" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3">
       <c r="B103" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
         <v>121</v>
       </c>
@@ -4484,22 +4051,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:3">
       <c r="B105" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3">
       <c r="B106" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:3">
       <c r="B107" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
         <v>126</v>
       </c>
@@ -4507,12 +4074,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3">
       <c r="B109" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
         <v>129</v>
       </c>
@@ -4520,17 +4087,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:3">
       <c r="B111" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:3">
       <c r="B112" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
         <v>133</v>
       </c>
@@ -4538,22 +4105,22 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:6">
       <c r="B114" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:6">
       <c r="B115" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:6">
       <c r="B116" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
         <v>138</v>
       </c>
@@ -4561,22 +4128,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:6">
       <c r="B118" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="1:6">
       <c r="C119" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:6">
       <c r="B120" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:6">
       <c r="A121" s="7" t="s">
         <v>143</v>
       </c>
@@ -4584,12 +4151,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:6">
       <c r="B122" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
         <v>146</v>
       </c>
@@ -4597,7 +4164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="1:6">
       <c r="B124" s="6" t="s">
         <v>148</v>
       </c>
@@ -4605,12 +4172,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="6:6">
+    <row r="125" spans="1:6">
       <c r="F125" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="1:6">
       <c r="B126" s="6" t="s">
         <v>151</v>
       </c>
@@ -4618,12 +4185,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="6:6">
+    <row r="127" spans="1:6">
       <c r="F127" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
         <v>153</v>
       </c>
@@ -4631,17 +4198,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:4">
       <c r="B129" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:4">
       <c r="B130" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
         <v>156</v>
       </c>
@@ -4649,217 +4216,217 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:4">
       <c r="B132" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:4">
       <c r="C133" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="1:4">
       <c r="C134" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="1:4">
       <c r="C135" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:4">
       <c r="C136" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="1:4">
       <c r="C137" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:4">
       <c r="C138" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="1:4">
       <c r="D139" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="1:4">
       <c r="C140" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="1:4">
       <c r="C141" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:4">
       <c r="C142" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="1:4">
       <c r="C143" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="4:4">
+    <row r="144" spans="1:4">
       <c r="D144" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="2:4">
       <c r="D145" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="2:4">
       <c r="C146" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="2:4">
       <c r="C147" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="4:4">
+    <row r="148" spans="2:4">
       <c r="D148" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="4:4">
+    <row r="149" spans="2:4">
       <c r="D149" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="4:4">
+    <row r="150" spans="2:4">
       <c r="D150" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:4">
       <c r="B151" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:4">
       <c r="B152" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="2:4">
       <c r="C153" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="2:4">
       <c r="C154" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="2:4">
       <c r="C155" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="2:4">
       <c r="C156" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:4">
       <c r="B157" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:4">
       <c r="B158" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="2:4">
       <c r="C159" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:4">
       <c r="B160" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2">
       <c r="B161" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2">
       <c r="B162" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2">
       <c r="B163" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2">
       <c r="B164" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2">
       <c r="B165" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="1:2">
       <c r="B166" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="1:2">
       <c r="B167" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2">
       <c r="B168" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2">
       <c r="B169" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2">
       <c r="B170" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2">
       <c r="B171" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2">
       <c r="B172" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2">
       <c r="B173" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2">
       <c r="B174" s="6" t="s">
         <v>181</v>
       </c>
@@ -4872,22 +4439,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2">
       <c r="B176" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:3">
       <c r="B177" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:3">
       <c r="B178" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" s="5" t="s">
         <v>203</v>
       </c>
@@ -4895,12 +4462,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="1:3">
       <c r="B180" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3">
       <c r="A181" s="7" t="s">
         <v>206</v>
       </c>
@@ -4908,27 +4475,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:3">
       <c r="B182" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="1:3">
       <c r="C183" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:3">
       <c r="B184" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:3">
       <c r="B185" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
         <v>212</v>
       </c>
@@ -4936,17 +4503,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:3">
       <c r="B187" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:3">
       <c r="B188" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:3">
       <c r="A189" s="7" t="s">
         <v>216</v>
       </c>
@@ -4954,17 +4521,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="1:3">
       <c r="B190" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="1:3">
       <c r="B191" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
         <v>220</v>
       </c>
@@ -4972,12 +4539,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:2">
       <c r="B193" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:2">
       <c r="B194" s="3" t="s">
         <v>223</v>
       </c>
@@ -4990,7 +4557,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="1:2">
       <c r="B196" s="3" t="s">
         <v>226</v>
       </c>
@@ -5003,7 +4570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:2">
       <c r="B198" s="3" t="s">
         <v>229</v>
       </c>
@@ -5016,37 +4583,37 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:2">
       <c r="B200" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:2">
       <c r="A203" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:2">
       <c r="A205" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:2">
       <c r="A206" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:2">
       <c r="A207" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
         <v>238</v>
       </c>
@@ -5927,145 +5494,203 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q13" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26666666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:9">
       <c r="C5" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>419</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:9">
       <c r="C7" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:9">
       <c r="B9" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:9">
       <c r="B10" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>417</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="4:9">
-      <c r="D16" t="s">
+    <row r="16" spans="1:9">
+      <c r="D16" s="14" t="s">
         <v>428</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="1:9">
+      <c r="B17" s="14" t="s">
+        <v>429</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="1:9">
+      <c r="B18" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="1:9">
+      <c r="B19" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="1:9">
+      <c r="A20" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="14"/>
       <c r="I20" s="3"/>
     </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="C30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="C31" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="5.26953125" style="16"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="447">
   <si>
     <t>python</t>
   </si>
@@ -126,9 +126,6 @@
     <t>删除字符串结尾的空格</t>
   </si>
   <si>
-    <t>字符串.rstrip()</t>
-  </si>
-  <si>
     <t>删除字符串开头的空格</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>删除字符串开头结尾空白</t>
-  </si>
-  <si>
-    <t>字符串.strip()</t>
   </si>
   <si>
     <r>
@@ -1950,6 +1944,46 @@
   </si>
   <si>
     <t>choice()函数，生成传入列表或元组的随机一个元素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.strip()</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取当前路径下的某个文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取任意路径下的某个文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.rstrip()</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐行读取文件里面的内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把文件里的全部内容放到一个列表里，然后打印列表的值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>read()方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把整个文件的内容读出来，保存到一个长长的字符串中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>readlines()方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个空列表，然后把每一行存成一个元素</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2210,6 +2244,163 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124068</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="177800"/>
+          <a:ext cx="1597268" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260819</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="889000"/>
+          <a:ext cx="4312119" cy="488949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1600200"/>
+          <a:ext cx="1797050" cy="492674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57621</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946400" y="2311400"/>
+          <a:ext cx="3372321" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2541,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
@@ -3206,8 +3397,8 @@
       <c r="AD20"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="B21" s="4" t="s">
-        <v>34</v>
+      <c r="B21" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3239,7 +3430,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3271,7 +3462,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -3304,7 +3495,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -3336,8 +3527,8 @@
       <c r="AD24"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
+      <c r="B25" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -3373,7 +3564,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3439,7 +3630,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="B28" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3472,7 +3663,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3505,7 +3696,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3538,7 +3729,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3571,7 +3762,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3604,7 +3795,7 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3637,7 +3828,7 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3670,1827 +3861,1827 @@
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:30">
       <c r="B48" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="C65" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="C70" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="B84" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="C87" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="B88" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="C89" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="C91" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="C94" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="B114" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="B115" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="B116" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="B118" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="C119" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="B120" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="B124" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="F125" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="B126" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="F127" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="C133" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="C134" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="C136" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="C137" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="C138" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="D139" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="C140" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="C141" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="D144" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="D145" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="C146" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="C147" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="D148" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="D149" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="D150" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="C153" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="C154" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="C155" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="C156" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="B157" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="C159" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="B160" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="B161" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="B162" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="B169" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="B174" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="B177" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="B178" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="B180" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="B182" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="C183" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="B184" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="B185" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="B187" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="B188" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="B190" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="B191" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="B194" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="B196" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="B198" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="B200" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5512,109 +5703,109 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B20" s="14"/>
       <c r="I20" s="3"/>
@@ -5624,32 +5815,32 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="C30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="C31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5662,18 +5853,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="5.26953125" style="16"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5681,7 +5916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="467">
   <si>
     <t>python</t>
   </si>
@@ -126,6 +121,9 @@
     <t>删除字符串结尾的空格</t>
   </si>
   <si>
+    <t>字符串.rstrip()</t>
+  </si>
+  <si>
     <t>删除字符串开头的空格</t>
   </si>
   <si>
@@ -133,6 +131,9 @@
   </si>
   <si>
     <t>删除字符串开头结尾空白</t>
+  </si>
+  <si>
+    <t>字符串.strip()</t>
   </si>
   <si>
     <r>
@@ -1874,10 +1875,14 @@
     <t>对象.方法()</t>
   </si>
   <si>
-    <t>class 子类名(父类名)：</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>继承(调用父类</t>
     </r>
     <r>
@@ -1900,101 +1905,155 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 子类名(父类名)：</t>
   </si>
   <si>
     <t>super().__init__(可选参数1,可选参数2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>这种方法先调用子类的构造函数，super().__init__相当于手动调用父类的构造函数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>子类可以新写自己的属性和方法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>子类可以重写父类的方法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>把一个小类变成一个大类的属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入类（把类存储在模块中）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>9.4没学，感觉没什么用，用的时候再学就来得及</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>python标准库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>random模块中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>randint()函数，生成两个参数中的随机数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>choice()函数，生成传入列表或元组的随机一个元素</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.strip()</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>读取当前路径下的某个文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>read()方法</t>
+  </si>
+  <si>
+    <t>把整个文件的内容读出来，保存到一个长长的字符串中</t>
   </si>
   <si>
     <t>读取任意路径下的某个文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.rstrip()</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>逐行读取文件里面的内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>把文件里的全部内容放到一个列表里，然后打印列表的值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>read()方法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>把整个文件的内容读出来，保存到一个长长的字符串中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>readlines()方法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>创建一个空列表，然后把每一行存成一个元素</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把读出文件里面的内容拼接起来</t>
+  </si>
+  <si>
+    <t>在一个空文件里写入内容</t>
+  </si>
+  <si>
+    <t>open()后面的'w'代表文件打开方式是写</t>
+  </si>
+  <si>
+    <t>如果找不到路径下的文件就新建一个</t>
+  </si>
+  <si>
+    <t>如果是'a'，就在原来的文件里加，不删除文件本来的内容</t>
+  </si>
+  <si>
+    <t>write()方法</t>
+  </si>
+  <si>
+    <t>写文件，引号里面是写的内容</t>
+  </si>
+  <si>
+    <t>只能写字符串类型的，要写数值就先用str()方法转成字符串形式</t>
+  </si>
+  <si>
+    <t>由于代码错误，又不让整个程序停止运行</t>
+  </si>
+  <si>
+    <t>try:</t>
+  </si>
+  <si>
+    <t>可能有问题的代码</t>
+  </si>
+  <si>
+    <t>except 错误类型:</t>
+  </si>
+  <si>
+    <t>错误时运行的代码，静默就写pass</t>
+  </si>
+  <si>
+    <t>正常代码</t>
+  </si>
+  <si>
+    <t>把字符串转成列表</t>
+  </si>
+  <si>
+    <t>split()方法</t>
+  </si>
+  <si>
+    <t>把字符串转成列表，用字符串中的空格分开每个元素的</t>
+  </si>
+  <si>
+    <t>用josn.dump()和json.load()存储和读取数据</t>
+  </si>
+  <si>
+    <t>把列表存到josn文件中</t>
+  </si>
+  <si>
+    <t>从josn文件中读取列表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2014,13 +2073,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -2035,51 +2087,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2087,13 +2433,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2109,6 +2697,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2121,49 +2712,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2185,15 +2805,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368300" y="3556000"/>
-          <a:ext cx="2698956" cy="774700"/>
+          <a:off x="401320" y="3429000"/>
+          <a:ext cx="2929890" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,15 +2843,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="3556000"/>
-          <a:ext cx="2350960" cy="819150"/>
+          <a:off x="3611880" y="3429000"/>
+          <a:ext cx="2548890" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,7 +2864,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2266,15 +2886,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3683000" y="177800"/>
-          <a:ext cx="1597268" cy="444500"/>
+          <a:off x="4013200" y="171450"/>
+          <a:ext cx="1729105" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,15 +2924,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="889000"/>
-          <a:ext cx="4312119" cy="488949"/>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="4674870" cy="475615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2342,15 +2962,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1600200"/>
-          <a:ext cx="1797050" cy="492674"/>
+          <a:off x="0" y="1543050"/>
+          <a:ext cx="1929130" cy="479425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,34 +2981,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57621</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35128</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2946400" y="2311400"/>
-          <a:ext cx="3372321" cy="1457528"/>
+          <a:off x="0" y="2571750"/>
+          <a:ext cx="2228850" cy="854710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,11 +3017,221 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277495</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3600450"/>
+          <a:ext cx="1873250" cy="613410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239395</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809240" y="4457700"/>
+          <a:ext cx="4653915" cy="470535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809240" y="5657850"/>
+          <a:ext cx="1969135" cy="922655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="2305050" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8743950"/>
+          <a:ext cx="2028825" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2410,20 +3240,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>276710</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>153818</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2431,11 +3261,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12889124" cy="8592749"/>
+          <a:ext cx="9105900" cy="6057900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2724,69 +3558,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="4.90625" style="6"/>
+    <col min="1" max="1" width="5.26666666666667" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="4.90833333333333" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23">
+    <row r="1" ht="22.5" spans="9:31">
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="11"/>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="AE1" s="11"/>
     </row>
-    <row r="2" spans="1:31">
-      <c r="W2" s="6" t="s">
+    <row r="2" spans="23:27">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:30">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
@@ -2818,8 +3652,8 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:30">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2852,8 +3686,8 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
@@ -2888,7 +3722,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="2:30">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -2919,8 +3753,8 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
@@ -2955,7 +3789,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="2:30">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2988,8 +3822,8 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:30">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -3024,7 +3858,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="2:30">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3057,8 +3891,8 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3093,7 +3927,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="2:30">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3960,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="2:30">
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3159,7 +3993,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="2:30">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3192,7 +4026,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="2:30">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3225,7 +4059,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="2:30">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3258,7 +4092,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="2:30">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3292,7 +4126,7 @@
       <c r="AD17"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3327,7 +4161,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="2:30">
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3361,7 +4195,7 @@
       <c r="AD19"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3396,9 +4230,9 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="1:30">
-      <c r="B21" s="15" t="s">
-        <v>440</v>
+    <row r="21" spans="2:30">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3428,9 +4262,9 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="2:30">
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3460,9 +4294,9 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="2:30">
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -3493,9 +4327,9 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="1:30">
-      <c r="B24" s="6" t="s">
-        <v>36</v>
+    <row r="24" spans="2:30">
+      <c r="B24" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -3526,9 +4360,9 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="1:30">
-      <c r="B25" s="2" t="s">
-        <v>437</v>
+    <row r="25" spans="2:30">
+      <c r="B25" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -3560,11 +4394,11 @@
       <c r="AD25"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3595,8 +4429,8 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="2:30">
+      <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C27"/>
@@ -3628,9 +4462,9 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30">
-      <c r="B28" s="8" t="s">
-        <v>38</v>
+    <row r="28" spans="2:30">
+      <c r="B28" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3661,9 +4495,9 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="2:30">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3694,9 +4528,9 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="2:30">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3727,9 +4561,9 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="2:30">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -3760,9 +4594,9 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="2:30">
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -3794,8 +4628,8 @@
       <c r="AD32"/>
     </row>
     <row r="33" spans="2:30">
-      <c r="B33" s="6" t="s">
-        <v>43</v>
+      <c r="B33" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -3828,7 +4662,7 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3859,2073 +4693,2183 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="2:30">
-      <c r="B35" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:30">
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30">
-      <c r="B37" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:30">
-      <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:30">
-      <c r="B39" s="6" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:30">
+    <row r="38" spans="2:2">
+      <c r="B38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30">
-      <c r="B41" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30">
-      <c r="B42" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:30">
-      <c r="B43" s="6" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:30">
-      <c r="B44" s="8" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:30">
-      <c r="B45" s="6" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="2:30">
-      <c r="B46" s="6" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:30">
-      <c r="B47" s="8" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:30">
-      <c r="B48" s="6" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="6" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="6" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="B51" s="8" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="6" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="6" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="6" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="9" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="7" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="6" t="s">
+      <c r="A56" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="6" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" s="6" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" s="6" t="s">
+      <c r="A61" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="B61" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" s="6" t="s">
+      <c r="A63" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="C65" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="B66" s="6" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="6" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="C70" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="8" t="s">
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="B72" s="6" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="6" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="6" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="B76" s="6" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="B77" s="6" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="B78" s="6" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="7" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="8" t="s">
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="B80" s="6" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="B82" s="6" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="8" t="s">
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="6" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="8" t="s">
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="B86" s="6" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="C87" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="B88" s="6" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="C89" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" s="6" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="C91" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" s="8" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="B93" s="6" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="C94" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="B95" s="8" t="s">
+    <row r="91" spans="3:3">
+      <c r="C91" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="B96" s="6" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="C97" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="8" t="s">
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="B99" s="6" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="7" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="8" t="s">
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="B102" s="6" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="8" t="s">
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="B105" s="6" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="B106" s="6" t="s">
+      <c r="B104" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="B107" s="6" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="7" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="8" t="s">
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" s="6" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
+      <c r="B108" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="8" t="s">
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="B111" s="6" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="B112" s="6" t="s">
+      <c r="B110" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="7" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="8" t="s">
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="B114" s="6" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="B115" s="6" t="s">
+      <c r="B113" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="B116" s="6" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="5" t="s">
+    <row r="115" spans="2:2">
+      <c r="B115" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="8" t="s">
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="B118" s="6" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="C119" s="6" t="s">
+      <c r="B117" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="B120" s="6" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="7" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="8" t="s">
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="B122" s="6" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="5" t="s">
+      <c r="B121" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="8" t="s">
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="B124" s="6" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="B123" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="F125" s="6" t="s">
+    <row r="124" spans="2:5">
+      <c r="B124" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="B126" s="6" t="s">
+      <c r="E124" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E126" s="6" t="s">
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="F127" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="7" t="s">
+    <row r="126" spans="2:5">
+      <c r="B126" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="E126" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="B129" s="6" t="s">
+    <row r="127" spans="6:6">
+      <c r="F127" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="B130" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="5" t="s">
+      <c r="B128" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B131" s="8" t="s">
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="B132" s="13" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="C133" s="6" t="s">
+      <c r="B131" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="C134" s="6" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="C135" s="6" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="C136" s="6" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="C137" s="6" t="s">
+    <row r="135" spans="3:3">
+      <c r="C135" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="C138" s="6" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="D139" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="C140" s="6" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="C141" s="13" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="C142" s="9" t="s">
+    <row r="139" spans="4:4">
+      <c r="D139" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="C143" s="9" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="D144" s="6" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
-      <c r="D145" s="9" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
-      <c r="C146" s="13" t="s">
+    <row r="144" spans="4:4">
+      <c r="D144" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
-      <c r="C147" s="6" t="s">
+    <row r="145" spans="4:4">
+      <c r="D145" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
-      <c r="D148" s="6" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
-      <c r="D149" s="6" t="s">
+    <row r="147" spans="3:3">
+      <c r="C147" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
-      <c r="D150" s="6" t="s">
+    <row r="148" spans="4:4">
+      <c r="D148" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="13" t="s">
+    <row r="149" spans="4:4">
+      <c r="D149" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="6" t="s">
+    <row r="150" spans="4:4">
+      <c r="D150" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
-      <c r="C153" s="6" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
-      <c r="C154" s="6" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
-      <c r="C155" s="6" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
-      <c r="C156" s="6" t="s">
+    <row r="154" spans="3:3">
+      <c r="C154" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
-      <c r="B157" s="9" t="s">
+    <row r="155" spans="3:3">
+      <c r="C155" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
-      <c r="B158" s="6" t="s">
+    <row r="156" spans="3:3">
+      <c r="C156" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
-      <c r="C159" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="B160" s="13" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="B161" s="6" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="B162" s="6" t="s">
+    <row r="159" spans="3:3">
+      <c r="C159" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="B163" s="6" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="B164" s="6" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="B165" s="6" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="B166" s="6" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="B167" s="6" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="B168" s="6" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="B169" s="6" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="B170" s="6" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="B171" s="6" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="B172" s="6" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="B173" s="6" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="B174" s="6" t="s">
-        <v>179</v>
+    <row r="172" spans="2:2">
+      <c r="B172" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="B176" s="9" t="s">
+      <c r="A175" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="B177" s="13" t="s">
+      <c r="B175" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="B178" s="9" t="s">
+    <row r="176" spans="2:2">
+      <c r="B176" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B179" s="13" t="s">
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="B180" s="6" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="7" t="s">
+      <c r="B179" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B181" s="13" t="s">
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="B182" s="9" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="C183" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="B184" s="9" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="B185" s="6" t="s">
+    <row r="183" spans="3:3">
+      <c r="C183" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B186" s="13" t="s">
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="B187" s="9" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="B188" s="9" t="s">
+      <c r="B186" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="7" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="2" t="s">
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="B190" s="3" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="B191" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B192" s="2" t="s">
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="B193" s="3" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="B194" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>221</v>
       </c>
     </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="B196" s="3" t="s">
+      <c r="A195" s="8" t="s">
         <v>224</v>
       </c>
+      <c r="B195" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="B198" s="3" t="s">
+      <c r="A197" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="B197" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="B200" s="3" t="s">
+      <c r="A199" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="7" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="5" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="7" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="5" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="7" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="8" t="s">
         <v>236</v>
       </c>
     </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="5" t="s">
-        <v>237</v>
+      <c r="A209" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="7" t="s">
-        <v>238</v>
+      <c r="A210" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="5" t="s">
-        <v>239</v>
+      <c r="A211" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="7" t="s">
-        <v>240</v>
+      <c r="A212" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="5" t="s">
-        <v>241</v>
+      <c r="A213" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="7" t="s">
-        <v>242</v>
+      <c r="A332" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="5" t="s">
-        <v>243</v>
+      <c r="A333" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="7" t="s">
-        <v>244</v>
+      <c r="A334" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="5" t="s">
-        <v>245</v>
+      <c r="A335" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="7" t="s">
-        <v>246</v>
+      <c r="A336" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="5" t="s">
-        <v>247</v>
+      <c r="A337" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="7" t="s">
-        <v>248</v>
+      <c r="A338" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="5" t="s">
-        <v>249</v>
+      <c r="A339" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="7" t="s">
-        <v>250</v>
+      <c r="A340" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="5" t="s">
-        <v>251</v>
+      <c r="A341" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="7" t="s">
-        <v>252</v>
+      <c r="A342" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="5" t="s">
-        <v>253</v>
+      <c r="A343" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="7" t="s">
-        <v>254</v>
+      <c r="A344" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="5" t="s">
-        <v>255</v>
+      <c r="A345" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="7" t="s">
-        <v>256</v>
+      <c r="A346" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="5" t="s">
-        <v>257</v>
+      <c r="A347" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="7" t="s">
-        <v>258</v>
+      <c r="A348" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="5" t="s">
-        <v>259</v>
+      <c r="A349" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="7" t="s">
-        <v>260</v>
+      <c r="A350" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="5" t="s">
-        <v>261</v>
+      <c r="A351" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="7" t="s">
-        <v>262</v>
+      <c r="A352" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="5" t="s">
-        <v>263</v>
+      <c r="A353" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="7" t="s">
-        <v>264</v>
+      <c r="A354" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="5" t="s">
-        <v>265</v>
+      <c r="A355" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="7" t="s">
-        <v>266</v>
+      <c r="A356" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="5" t="s">
-        <v>267</v>
+      <c r="A357" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="7" t="s">
-        <v>268</v>
+      <c r="A358" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="5" t="s">
-        <v>269</v>
+      <c r="A359" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="7" t="s">
-        <v>270</v>
+      <c r="A360" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="5" t="s">
-        <v>271</v>
+      <c r="A361" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="7" t="s">
-        <v>272</v>
+      <c r="A362" s="8" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="5" t="s">
-        <v>273</v>
+      <c r="A363" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="7" t="s">
-        <v>274</v>
+      <c r="A364" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="5" t="s">
-        <v>275</v>
+      <c r="A365" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="7" t="s">
-        <v>276</v>
+      <c r="A366" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="5" t="s">
-        <v>277</v>
+      <c r="A367" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="7" t="s">
-        <v>278</v>
+      <c r="A368" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="5" t="s">
-        <v>279</v>
+      <c r="A369" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="7" t="s">
-        <v>280</v>
+      <c r="A370" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="5" t="s">
-        <v>281</v>
+      <c r="A371" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="7" t="s">
-        <v>282</v>
+      <c r="A372" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="5" t="s">
-        <v>283</v>
+      <c r="A373" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="7" t="s">
-        <v>284</v>
+      <c r="A374" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="5" t="s">
-        <v>285</v>
+      <c r="A375" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="7" t="s">
-        <v>286</v>
+      <c r="A376" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="5" t="s">
-        <v>287</v>
+      <c r="A377" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="7" t="s">
-        <v>288</v>
+      <c r="A378" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="5" t="s">
-        <v>289</v>
+      <c r="A379" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="7" t="s">
-        <v>290</v>
+      <c r="A380" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="5" t="s">
-        <v>291</v>
+      <c r="A381" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="7" t="s">
-        <v>292</v>
+      <c r="A382" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="5" t="s">
-        <v>293</v>
+      <c r="A383" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="7" t="s">
-        <v>294</v>
+      <c r="A384" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="5" t="s">
-        <v>295</v>
+      <c r="A385" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="7" t="s">
-        <v>296</v>
+      <c r="A386" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="5" t="s">
-        <v>297</v>
+      <c r="A387" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="7" t="s">
-        <v>298</v>
+      <c r="A388" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="5" t="s">
-        <v>299</v>
+      <c r="A389" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="7" t="s">
-        <v>300</v>
+      <c r="A390" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="5" t="s">
-        <v>301</v>
+      <c r="A391" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="7" t="s">
-        <v>302</v>
+      <c r="A392" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="5" t="s">
-        <v>303</v>
+      <c r="A393" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="7" t="s">
-        <v>304</v>
+      <c r="A394" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="5" t="s">
-        <v>305</v>
+      <c r="A395" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="7" t="s">
-        <v>306</v>
+      <c r="A396" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="5" t="s">
-        <v>307</v>
+      <c r="A397" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="7" t="s">
-        <v>308</v>
+      <c r="A398" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="5" t="s">
-        <v>309</v>
+      <c r="A399" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="7" t="s">
-        <v>310</v>
+      <c r="A400" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="5" t="s">
-        <v>311</v>
+      <c r="A401" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="7" t="s">
-        <v>312</v>
+      <c r="A402" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="5" t="s">
-        <v>313</v>
+      <c r="A403" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="7" t="s">
-        <v>314</v>
+      <c r="A404" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="5" t="s">
-        <v>315</v>
+      <c r="A405" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="7" t="s">
-        <v>316</v>
+      <c r="A406" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="5" t="s">
-        <v>317</v>
+      <c r="A407" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="7" t="s">
-        <v>318</v>
+      <c r="A408" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="5" t="s">
-        <v>319</v>
+      <c r="A409" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="7" t="s">
-        <v>320</v>
+      <c r="A410" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="5" t="s">
-        <v>321</v>
+      <c r="A411" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="7" t="s">
-        <v>322</v>
+      <c r="A412" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="5" t="s">
-        <v>323</v>
+      <c r="A413" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="7" t="s">
-        <v>324</v>
+      <c r="A414" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="5" t="s">
-        <v>325</v>
+      <c r="A415" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="7" t="s">
-        <v>326</v>
+      <c r="A416" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="5" t="s">
-        <v>327</v>
+      <c r="A417" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="7" t="s">
-        <v>328</v>
+      <c r="A418" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="5" t="s">
-        <v>329</v>
+      <c r="A419" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="7" t="s">
-        <v>330</v>
+      <c r="A420" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="5" t="s">
-        <v>331</v>
+      <c r="A421" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="7" t="s">
-        <v>332</v>
+      <c r="A422" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="5" t="s">
-        <v>333</v>
+      <c r="A423" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="7" t="s">
-        <v>334</v>
+      <c r="A424" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="5" t="s">
-        <v>335</v>
+      <c r="A425" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="7" t="s">
-        <v>336</v>
+      <c r="A426" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="5" t="s">
-        <v>337</v>
+      <c r="A427" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="7" t="s">
-        <v>338</v>
+      <c r="A428" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="5" t="s">
-        <v>339</v>
+      <c r="A429" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="7" t="s">
-        <v>340</v>
+      <c r="A430" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="5" t="s">
-        <v>341</v>
+      <c r="A431" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="7" t="s">
-        <v>342</v>
+      <c r="A432" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="5" t="s">
-        <v>343</v>
+      <c r="A433" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="7" t="s">
-        <v>344</v>
+      <c r="A434" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="5" t="s">
-        <v>345</v>
+      <c r="A435" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="7" t="s">
-        <v>346</v>
+      <c r="A436" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="5" t="s">
-        <v>347</v>
+      <c r="A437" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="7" t="s">
-        <v>348</v>
+      <c r="A438" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="5" t="s">
-        <v>349</v>
+      <c r="A439" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="7" t="s">
-        <v>350</v>
+      <c r="A440" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="5" t="s">
-        <v>351</v>
+      <c r="A441" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="7" t="s">
-        <v>352</v>
+      <c r="A442" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="5" t="s">
-        <v>353</v>
+      <c r="A443" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="7" t="s">
-        <v>354</v>
+      <c r="A444" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="5" t="s">
-        <v>355</v>
+      <c r="A445" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="7" t="s">
-        <v>356</v>
+      <c r="A446" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="5" t="s">
-        <v>357</v>
+      <c r="A447" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="7" t="s">
-        <v>358</v>
+      <c r="A448" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="5" t="s">
-        <v>359</v>
+      <c r="A449" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="7" t="s">
-        <v>360</v>
+      <c r="A450" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="5" t="s">
-        <v>361</v>
+      <c r="A451" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="7" t="s">
-        <v>362</v>
+      <c r="A452" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="5" t="s">
-        <v>363</v>
+      <c r="A453" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="7" t="s">
-        <v>364</v>
+      <c r="A454" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="5" t="s">
-        <v>365</v>
+      <c r="A455" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="7" t="s">
-        <v>366</v>
+      <c r="A456" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="5" t="s">
-        <v>367</v>
+      <c r="A457" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="7" t="s">
-        <v>368</v>
+      <c r="A458" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="5" t="s">
-        <v>369</v>
+      <c r="A459" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="7" t="s">
-        <v>370</v>
+      <c r="A460" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="5" t="s">
-        <v>371</v>
+      <c r="A461" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="7" t="s">
-        <v>372</v>
+      <c r="A462" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="5" t="s">
-        <v>373</v>
+      <c r="A463" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="7" t="s">
-        <v>374</v>
+      <c r="A464" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="5" t="s">
-        <v>375</v>
+      <c r="A465" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="7" t="s">
-        <v>376</v>
+      <c r="A466" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="5" t="s">
-        <v>377</v>
+      <c r="A467" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="7" t="s">
-        <v>378</v>
+      <c r="A468" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="5" t="s">
-        <v>379</v>
+      <c r="A469" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="7" t="s">
-        <v>380</v>
+      <c r="A470" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="5" t="s">
-        <v>381</v>
+      <c r="A471" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="7" t="s">
-        <v>382</v>
+      <c r="A472" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="5" t="s">
-        <v>383</v>
+      <c r="A473" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="7" t="s">
-        <v>384</v>
+      <c r="A474" s="8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="5" t="s">
-        <v>385</v>
+      <c r="A475" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="7" t="s">
-        <v>386</v>
+      <c r="A476" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="5" t="s">
-        <v>387</v>
+      <c r="A477" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="7" t="s">
-        <v>388</v>
+      <c r="A478" s="8" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="5" t="s">
-        <v>389</v>
+      <c r="A479" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="7" t="s">
-        <v>390</v>
+      <c r="A480" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="5" t="s">
-        <v>391</v>
+      <c r="A481" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="7" t="s">
-        <v>392</v>
+      <c r="A482" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="5" t="s">
-        <v>393</v>
+      <c r="A483" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="7" t="s">
-        <v>394</v>
+      <c r="A484" s="8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="5" t="s">
-        <v>395</v>
+      <c r="A485" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="7" t="s">
-        <v>396</v>
+      <c r="A486" s="8" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="5" t="s">
-        <v>397</v>
+      <c r="A487" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="7" t="s">
-        <v>398</v>
+      <c r="A488" s="8" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="5" t="s">
-        <v>399</v>
+      <c r="A489" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="7" t="s">
-        <v>400</v>
+      <c r="A490" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="5" t="s">
-        <v>401</v>
+      <c r="A491" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="7" t="s">
-        <v>402</v>
+      <c r="A492" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="5" t="s">
-        <v>403</v>
+      <c r="A493" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="7" t="s">
-        <v>404</v>
+      <c r="A494" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="5" t="s">
-        <v>405</v>
+      <c r="A495" s="6" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="7" t="s">
-        <v>406</v>
+      <c r="A496" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="5" t="s">
-        <v>407</v>
+      <c r="A497" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="7" t="s">
-        <v>408</v>
+      <c r="A498" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="5" t="s">
-        <v>409</v>
+      <c r="A499" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="7" t="s">
-        <v>410</v>
+      <c r="A500" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="5" t="s">
-        <v>411</v>
+      <c r="A501" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="5.26666666666667" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" t="s">
-        <v>415</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="14" t="s">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="14" t="s">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="14"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="5.26666666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="5.26953125" style="16"/>
+    <col min="1" max="16384" width="5.26666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>438</v>
+      <c r="A1" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="2" t="s">
         <v>446</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
     <sheet name="类" sheetId="3" r:id="rId2"/>
     <sheet name="文件" sheetId="4" r:id="rId3"/>
-    <sheet name="书签" sheetId="2" r:id="rId4"/>
+    <sheet name="项目" sheetId="5" r:id="rId4"/>
+    <sheet name="书签" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="468">
   <si>
     <t>python</t>
   </si>
@@ -2026,18 +2032,16 @@
   <si>
     <t>从josn文件中读取列表</t>
   </si>
+  <si>
+    <t>武装飞船</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2087,345 +2091,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2433,251 +2113,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2722,68 +2160,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2805,7 +2199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2843,7 +2237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2864,7 +2258,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2886,7 +2280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2924,7 +2318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2962,7 +2356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3000,7 +2394,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3038,7 +2432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3080,7 +2474,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3122,7 +2516,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3164,7 +2558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3206,7 +2600,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3231,7 +2625,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3253,7 +2647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3558,25 +2952,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.26666666666667" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="4.90833333333333" style="7"/>
+    <col min="1" max="1" width="5.26953125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="4.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="9:31">
+    <row r="1" spans="1:31" ht="23">
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -3599,7 +2993,7 @@
       </c>
       <c r="AE1" s="11"/>
     </row>
-    <row r="2" spans="23:27">
+    <row r="2" spans="1:31">
       <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +3010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3046,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>13</v>
@@ -3686,7 +3080,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3722,7 +3116,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="1:31">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -3753,7 +3147,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -3789,7 +3183,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="1:31">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3822,7 +3216,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3858,7 +3252,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="1:31">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3891,7 +3285,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -3927,7 +3321,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:31">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3960,7 +3354,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="1:31">
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3993,7 +3387,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="1:31">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4026,7 +3420,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="1:31">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4059,7 +3453,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="1:31">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +3486,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="1:30">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -4161,7 +3555,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="1:30">
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -4230,7 +3624,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="1:30">
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -4262,7 +3656,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="1:30">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4294,7 +3688,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="1:30">
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
@@ -4327,7 +3721,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="1:30">
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
@@ -4360,7 +3754,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="1:30">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +3823,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="1:30">
       <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
@@ -4462,7 +3856,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="1:30">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -4495,7 +3889,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="1:30">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -4528,7 +3922,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="1:30">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -4561,7 +3955,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="1:30">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -4594,7 +3988,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="1:30">
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
@@ -4693,107 +4087,107 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:30">
       <c r="B35" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:30">
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:30">
       <c r="B37" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:30">
       <c r="B38" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:30">
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:30">
       <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:30">
       <c r="B41" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:30">
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:30">
       <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:30">
       <c r="B44" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:30">
       <c r="B45" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:30">
       <c r="B46" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:30">
       <c r="B47" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:30">
       <c r="B48" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
       <c r="B49" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2">
       <c r="B50" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:2">
       <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2">
       <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2">
       <c r="B53" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2">
       <c r="B54" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2">
       <c r="B55" s="7" t="s">
         <v>67</v>
       </c>
@@ -4806,22 +4200,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2">
       <c r="B57" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2">
       <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2">
       <c r="B59" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2">
       <c r="B60" s="7" t="s">
         <v>73</v>
       </c>
@@ -4834,7 +4228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2">
       <c r="B62" s="7" t="s">
         <v>76</v>
       </c>
@@ -4847,22 +4241,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:2">
       <c r="B64" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:3">
       <c r="C65" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:3">
       <c r="B66" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
         <v>82</v>
       </c>
@@ -4870,22 +4264,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:3">
       <c r="B68" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3">
       <c r="B69" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="1:3">
       <c r="C70" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>86</v>
       </c>
@@ -4893,42 +4287,42 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3">
       <c r="B72" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:3">
       <c r="B73" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3">
       <c r="B74" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3">
       <c r="B75" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3">
       <c r="B76" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:3">
       <c r="B77" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:3">
       <c r="B78" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
         <v>95</v>
       </c>
@@ -4936,22 +4330,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:3">
       <c r="B80" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3">
       <c r="B81" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3">
       <c r="B82" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>100</v>
       </c>
@@ -4959,12 +4353,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3">
       <c r="B84" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
         <v>103</v>
       </c>
@@ -4972,67 +4366,67 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:3">
       <c r="B86" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3">
       <c r="C87" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3">
       <c r="B88" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3">
       <c r="C89" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3">
       <c r="B90" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="1:3">
       <c r="C91" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3">
       <c r="B92" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:3">
       <c r="B93" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="1:3">
       <c r="C94" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3">
       <c r="B95" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:3">
       <c r="B96" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3">
       <c r="C97" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
@@ -5040,17 +4434,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:3">
       <c r="B99" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:3">
       <c r="B100" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
         <v>117</v>
       </c>
@@ -5058,17 +4452,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:3">
       <c r="B102" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3">
       <c r="B103" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>121</v>
       </c>
@@ -5076,22 +4470,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:3">
       <c r="B105" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3">
       <c r="B106" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:3">
       <c r="B107" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
         <v>126</v>
       </c>
@@ -5099,12 +4493,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3">
       <c r="B109" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
@@ -5112,17 +4506,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:3">
       <c r="B111" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:3">
       <c r="B112" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
         <v>133</v>
       </c>
@@ -5130,22 +4524,22 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:6">
       <c r="B114" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:6">
       <c r="B115" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:6">
       <c r="B116" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:6">
       <c r="A117" s="6" t="s">
         <v>138</v>
       </c>
@@ -5153,22 +4547,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:6">
       <c r="B118" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="1:6">
       <c r="C119" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:6">
       <c r="B120" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
         <v>143</v>
       </c>
@@ -5176,12 +4570,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:6">
       <c r="B122" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:6">
       <c r="A123" s="6" t="s">
         <v>146</v>
       </c>
@@ -5189,7 +4583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="1:6">
       <c r="B124" s="7" t="s">
         <v>148</v>
       </c>
@@ -5197,12 +4591,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="6:6">
+    <row r="125" spans="1:6">
       <c r="F125" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="1:6">
       <c r="B126" s="7" t="s">
         <v>151</v>
       </c>
@@ -5210,12 +4604,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="6:6">
+    <row r="127" spans="1:6">
       <c r="F127" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
         <v>153</v>
       </c>
@@ -5223,17 +4617,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:4">
       <c r="B129" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:4">
       <c r="B130" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:4">
       <c r="A131" s="6" t="s">
         <v>156</v>
       </c>
@@ -5241,217 +4635,217 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:4">
       <c r="B132" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:4">
       <c r="C133" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="1:4">
       <c r="C134" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="1:4">
       <c r="C135" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:4">
       <c r="C136" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="1:4">
       <c r="C137" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:4">
       <c r="C138" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="1:4">
       <c r="D139" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="1:4">
       <c r="C140" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="1:4">
       <c r="C141" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:4">
       <c r="C142" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="1:4">
       <c r="C143" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="4:4">
+    <row r="144" spans="1:4">
       <c r="D144" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="2:4">
       <c r="D145" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="2:4">
       <c r="C146" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="2:4">
       <c r="C147" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="4:4">
+    <row r="148" spans="2:4">
       <c r="D148" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="4:4">
+    <row r="149" spans="2:4">
       <c r="D149" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="4:4">
+    <row r="150" spans="2:4">
       <c r="D150" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:4">
       <c r="B151" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:4">
       <c r="B152" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="2:4">
       <c r="C153" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="2:4">
       <c r="C154" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="2:4">
       <c r="C155" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="2:4">
       <c r="C156" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:4">
       <c r="B157" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:4">
       <c r="B158" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="2:4">
       <c r="C159" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:4">
       <c r="B160" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2">
       <c r="B161" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2">
       <c r="B162" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2">
       <c r="B163" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2">
       <c r="B164" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2">
       <c r="B165" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="1:2">
       <c r="B166" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="1:2">
       <c r="B167" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2">
       <c r="B168" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2">
       <c r="B169" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2">
       <c r="B170" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2">
       <c r="B171" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2">
       <c r="B172" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2">
       <c r="B173" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2">
       <c r="B174" s="7" t="s">
         <v>181</v>
       </c>
@@ -5464,22 +4858,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2">
       <c r="B176" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:3">
       <c r="B177" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:3">
       <c r="B178" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>203</v>
       </c>
@@ -5487,12 +4881,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="1:3">
       <c r="B180" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3">
       <c r="A181" s="8" t="s">
         <v>206</v>
       </c>
@@ -5500,27 +4894,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:3">
       <c r="B182" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="1:3">
       <c r="C183" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:3">
       <c r="B184" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:3">
       <c r="B185" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>212</v>
       </c>
@@ -5528,17 +4922,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:3">
       <c r="B187" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:3">
       <c r="B188" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:3">
       <c r="A189" s="8" t="s">
         <v>216</v>
       </c>
@@ -5546,17 +4940,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="1:3">
       <c r="B190" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="1:3">
       <c r="B191" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>220</v>
       </c>
@@ -5564,12 +4958,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:2">
       <c r="B193" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:2">
       <c r="B194" s="1" t="s">
         <v>223</v>
       </c>
@@ -5582,7 +4976,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="1:2">
       <c r="B196" s="1" t="s">
         <v>226</v>
       </c>
@@ -5595,7 +4989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:2">
       <c r="B198" s="1" t="s">
         <v>229</v>
       </c>
@@ -5608,37 +5002,37 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:2">
       <c r="B200" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:2">
       <c r="A203" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:2">
       <c r="A204" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:2">
       <c r="A206" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:2">
       <c r="A208" s="8" t="s">
         <v>238</v>
       </c>
@@ -6519,120 +5913,119 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26666666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>419</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:9">
       <c r="B9" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>417</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="1:9">
       <c r="D16" s="5" t="s">
         <v>428</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:9">
       <c r="B17" s="5" t="s">
         <v>429</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="1:9">
       <c r="B18" s="5" t="s">
         <v>430</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:9">
       <c r="B19" s="5" t="s">
         <v>431</v>
       </c>
@@ -6645,59 +6038,58 @@
       <c r="B20" s="5"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:9">
       <c r="B21" s="5"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="1:9">
       <c r="C30" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:9">
       <c r="C31" t="s">
         <v>438</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26666666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="5.26666666666667" style="2"/>
+    <col min="1" max="16384" width="5.26953125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -6740,102 +6132,102 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
       <c r="B32" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
       <c r="B35" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
       <c r="B39" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>465</v>
       </c>
@@ -6846,30 +6238,48 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -2634,14 +2634,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421265</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2655,15 +2655,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9105900" cy="6057900"/>
+          <a:ext cx="6096851" cy="6077798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6249,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14"/>
@@ -6270,7 +6266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\git\learning-text\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -2956,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
@@ -5919,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
@@ -6079,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="14"/>
@@ -6266,7 +6266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
